--- a/stats_amp_freq.xlsx
+++ b/stats_amp_freq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwcn9\Desktop\4th year project\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94801C4-E0A7-4836-9836-7C2F6B838554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3E1051-7A52-4125-8CAC-B8FEFA1370F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -230,136 +230,136 @@
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,7 +703,7 @@
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,367 +714,367 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="16">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="12">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="22">
         <v>3.2829999999999999</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="15">
         <v>0.89400000000000002</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="14">
         <v>2.1160000000000001</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="15">
         <v>1.2689999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="23">
         <v>6.7480000000000002</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>1.865</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>2.6720000000000002</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>2.2189999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="23">
         <v>91.84</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>17.809000000000001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>109.98099999999999</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>37.408000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="17"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="24">
         <v>124.69</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="18">
         <v>28.178999999999998</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="17">
         <v>188.47399999999999</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="18">
         <v>84.132000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="17"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="22">
         <v>0.92300000000000004</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="15">
         <v>0.315</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="14">
         <v>0.53600000000000003</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="15">
         <v>0.39</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="23">
         <v>1.796</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>0.71299999999999997</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>0.71699999999999997</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="23">
         <v>21.263999999999999</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>5.3970000000000002</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>30.433</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>11.266999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="24">
         <v>31.271000000000001</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="18">
         <v>9.0299999999999994</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="17">
         <v>58.228000000000002</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="18">
         <v>26.388999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="25">
         <v>3.66</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="21">
         <v>4.6900000000000004</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="20">
         <v>6.4349999999999996</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="21">
         <v>8.7850000000000001</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="26">
         <v>3.4670000000000001</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>6.35</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="7">
         <v>2.71</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="8">
         <v>5.5990000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="9" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="26">
         <v>2.9809999999999999</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>4.5670000000000002</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="7">
         <v>2.774</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>4.8479999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="27">
         <v>4.2469999999999999</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="11">
         <v>4.8369999999999997</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="10">
         <v>2.2370000000000001</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="11">
         <v>4.7270000000000003</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="26">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>4.6829999999999998</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <v>4.577</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <v>6.52</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="26">
         <v>1.2549999999999999</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>6.0839999999999996</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <v>1.131</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="8">
         <v>4.5979999999999999</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="8"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="26">
         <v>0.9</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>3.2509999999999999</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <v>0.73699999999999999</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="8">
         <v>2.851</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="12"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="27">
         <v>0.81799999999999995</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="11">
         <v>2.988</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="10">
         <v>0.38900000000000001</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="11">
         <v>2.5939999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
